--- a/datas/案例模板.xlsx
+++ b/datas/案例模板.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <name val="等线"/>
       <family val="2"/>
@@ -59,11 +59,6 @@
       <b val="1"/>
       <sz val="10"/>
     </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <sz val="9"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -103,9 +98,7 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
@@ -453,15 +446,15 @@
   <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="15" min="1" style="1" width="8.88671875"/>
     <col customWidth="1" max="16" min="16" style="1" width="17.88671875"/>
-    <col customWidth="1" max="18" min="17" style="1" width="8.88671875"/>
-    <col customWidth="1" max="16384" min="19" style="1" width="8.88671875"/>
+    <col customWidth="1" max="20" min="17" style="1" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="21" style="1" width="8.88671875"/>
   </cols>
   <sheetData>
     <row customFormat="1" customHeight="1" ht="26.4" r="1" s="5">

--- a/datas/案例模板.xlsx
+++ b/datas/案例模板.xlsx
@@ -1,68 +1,164 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\UIframework\datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0A21E0-FBB1-41B8-BE7D-A7369A8C393C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" calcOnSave="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" calcOnSave="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+  <si>
+    <t>测试列表编号</t>
+  </si>
+  <si>
+    <t>用例编号</t>
+  </si>
+  <si>
+    <t>应用名称</t>
+  </si>
+  <si>
+    <t>子系统或模块</t>
+  </si>
+  <si>
+    <t>交易名称</t>
+  </si>
+  <si>
+    <t>功能点</t>
+  </si>
+  <si>
+    <t>测试类型</t>
+  </si>
+  <si>
+    <t>优先级</t>
+  </si>
+  <si>
+    <t>设计人</t>
+  </si>
+  <si>
+    <t>设计日期</t>
+  </si>
+  <si>
+    <t>测试检查要点</t>
+  </si>
+  <si>
+    <t>批次特征</t>
+  </si>
+  <si>
+    <t>前置条件</t>
+  </si>
+  <si>
+    <t>输入数据</t>
+  </si>
+  <si>
+    <t>测试步骤</t>
+  </si>
+  <si>
+    <t>预期结果</t>
+  </si>
+  <si>
+    <t>实际结果</t>
+  </si>
+  <si>
+    <t>缺陷ID</t>
+  </si>
+  <si>
+    <t>执行状态</t>
+  </si>
+  <si>
+    <t>执行人</t>
+  </si>
+  <si>
+    <t>执行日期</t>
+  </si>
+  <si>
+    <t>复核人</t>
+  </si>
+  <si>
+    <t>复核结果</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>test_gushiwen.py</t>
+  </si>
+  <si>
+    <t>auto write:
+登录古诗文网站</t>
+  </si>
+  <si>
+    <t>username=2584167983@qq.com
+password=yihong.li
+auto write:
+找回密码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <b val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="等线"/>
       <family val="2"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="Times New Roman"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <b val="1"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -78,101 +174,42 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="8" name="超链接" xfId="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -438,182 +475,117 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="15" min="1" style="1" width="8.88671875"/>
-    <col customWidth="1" max="16" min="16" style="1" width="17.88671875"/>
-    <col customWidth="1" max="20" min="17" style="1" width="8.88671875"/>
-    <col customWidth="1" max="16384" min="21" style="1" width="8.88671875"/>
+    <col min="1" max="15" width="8.88671875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.88671875" style="1" customWidth="1"/>
+    <col min="17" max="21" width="8.88671875" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="5">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>测试列表编号</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>用例编号</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>应用名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>子系统或模块</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>交易名称</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>功能点</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>测试类型</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>优先级</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>设计人</t>
-        </is>
-      </c>
-      <c r="J1" s="2" t="inlineStr">
-        <is>
-          <t>设计日期</t>
-        </is>
-      </c>
-      <c r="K1" s="2" t="inlineStr">
-        <is>
-          <t>测试检查要点</t>
-        </is>
-      </c>
-      <c r="L1" s="2" t="inlineStr">
-        <is>
-          <t>批次特征</t>
-        </is>
-      </c>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>前置条件</t>
-        </is>
-      </c>
-      <c r="N1" s="4" t="inlineStr">
-        <is>
-          <t>输入数据</t>
-        </is>
-      </c>
-      <c r="O1" s="2" t="inlineStr">
-        <is>
-          <t>测试步骤</t>
-        </is>
-      </c>
-      <c r="P1" s="3" t="inlineStr">
-        <is>
-          <t>预期结果</t>
-        </is>
-      </c>
-      <c r="Q1" s="4" t="inlineStr">
-        <is>
-          <t>实际结果</t>
-        </is>
-      </c>
-      <c r="R1" s="2" t="inlineStr">
-        <is>
-          <t>缺陷ID</t>
-        </is>
-      </c>
-      <c r="S1" s="2" t="inlineStr">
-        <is>
-          <t>执行状态</t>
-        </is>
-      </c>
-      <c r="T1" s="2" t="inlineStr">
-        <is>
-          <t>执行人</t>
-        </is>
-      </c>
-      <c r="U1" s="2" t="inlineStr">
-        <is>
-          <t>执行日期</t>
-        </is>
-      </c>
-      <c r="V1" s="2" t="inlineStr">
-        <is>
-          <t>复核人</t>
-        </is>
-      </c>
-      <c r="W1" s="2" t="inlineStr">
-        <is>
-          <t>复核结果</t>
-        </is>
-      </c>
-      <c r="X1" s="2" t="inlineStr">
-        <is>
-          <t>备注</t>
-        </is>
+    <row r="1" spans="1:24" s="5" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="96.59999999999999" r="2" s="5">
-      <c r="B2" s="5" t="inlineStr">
-        <is>
-          <t>test_gushiwen.py</t>
-        </is>
-      </c>
-      <c r="N2" s="6" t="inlineStr">
-        <is>
-          <t>username=2584167983@qq.com
-password=yihong.li
-auto write:
-找回密码</t>
-        </is>
-      </c>
-      <c r="P2" s="1" t="n"/>
-      <c r="Q2" s="1" t="inlineStr">
-        <is>
-          <t>auto write:
-登录古诗文网站</t>
-        </is>
-      </c>
-      <c r="R2" s="1" t="n"/>
+    <row r="2" spans="1:24" s="5" customFormat="1" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" s="1"/>
     </row>
-    <row r="3">
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N3" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N2" r:id="rId1"/>
+    <hyperlink ref="N2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/datas/案例模板.xlsx
+++ b/datas/案例模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\UIframework\datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0A21E0-FBB1-41B8-BE7D-A7369A8C393C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FACB77E-DF36-4E2B-B4A4-EF68788903BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>测试列表编号</t>
   </si>
@@ -97,14 +97,8 @@
     <t>test_gushiwen.py</t>
   </si>
   <si>
-    <t>auto write:
-登录古诗文网站</t>
-  </si>
-  <si>
     <t>username=2584167983@qq.com
-password=yihong.li
-auto write:
-找回密码</t>
+password=yihong.li</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -479,7 +473,7 @@
   <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -569,12 +563,10 @@
         <v>24</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P2" s="1"/>
-      <c r="Q2" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
